--- a/paitiants_info/history_200 (3).xlsx
+++ b/paitiants_info/history_200 (3).xlsx
@@ -462,7 +462,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2025年07月28日 (月)</t>
+          <t>2025年07月31日 (木)</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2025年07月28日 (月)</t>
+          <t>2025年07月31日 (木)</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2025年07月28日 (月)</t>
+          <t>2025年07月31日 (木)</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2025年07月28日 (月)</t>
+          <t>2025年07月31日 (木)</t>
         </is>
       </c>
     </row>
@@ -7838,7 +7838,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>2025年07月28日 (月)</t>
+          <t>2025年07月31日 (木)</t>
         </is>
       </c>
     </row>
